--- a/mosip_master/xlsx/language.xlsx
+++ b/mosip_master/xlsx/language.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\environmets\niger-pilot\niger_master-data_preparation\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674CF7A0-5227-46BB-BCF6-C6388E1DC0B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>code</t>
   </si>
@@ -42,92 +49,37 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>English</t>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>French</t>
   </si>
   <si>
     <t>Indo-European</t>
   </si>
   <si>
+    <t>français</t>
+  </si>
+  <si>
     <t>TRUE</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>français</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>الهندو أوروبية</t>
-  </si>
-  <si>
-    <t>عربي</t>
-  </si>
-  <si>
-    <t>kan</t>
-  </si>
-  <si>
-    <t>ಕನ್ನಡ</t>
-  </si>
-  <si>
-    <t>ಇಂಡೋ-ಯುರೋಪಿಯನ್</t>
-  </si>
-  <si>
-    <t>Kannada</t>
-  </si>
-  <si>
-    <t>hin</t>
-  </si>
-  <si>
-    <t>हिन्दी</t>
-  </si>
-  <si>
-    <t>भारोपीय</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>tam</t>
-  </si>
-  <si>
-    <t>தமிழ்</t>
-  </si>
-  <si>
-    <t>இந்தோ-ஐரோப்பிய</t>
-  </si>
-  <si>
-    <t>Tamil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -268,26 +220,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -320,23 +255,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,26 +397,25 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="5" width="8.44140625" style="1"/>
+    <col min="3" max="3" width="31.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -515,7 +432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -526,95 +443,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
